--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T07:37:47+00:00</t>
+    <t>2021-09-07T11:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T11:28:37+00:00</t>
+    <t>2021-09-16T07:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from ART Regimen Lines" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from ART Regimen Line" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T07:55:33+00:00</t>
+    <t>2021-10-01T07:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T07:57:23+00:00</t>
+    <t>2021-10-01T08:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:08:42+00:00</t>
+    <t>2021-10-01T08:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:12:33+00:00</t>
+    <t>2022-06-22T18:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-13T13:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T13:24:33+00:00</t>
+    <t>2022-09-14T08:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:32:49+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-16T12:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T12:02:49+00:00</t>
+    <t>2022-09-19T10:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T10:13:53+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:39:45+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T11:53:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:53:08+00:00</t>
+    <t>2022-10-06T13:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-artregimen-lines.xlsx
+++ b/ValueSet-vs-artregimen-lines.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T13:57:21+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
